--- a/mapping/mml4_flowsheet.xlsx
+++ b/mapping/mml4_flowsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19080" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,51 @@
     <author>skoba</author>
   </authors>
   <commentList>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>VitalSignは下記テーブルを参照</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>条件分岐あり下記にテーブルあり</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>経過時間
+StartTimeとEndTimeから計算をお願いします</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J48" authorId="0">
       <text>
         <r>
@@ -96,12 +141,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="H264" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>経過時間を記録します。終了時間と開始時間から計算をお願いします。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H274" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">経過時間を記録します。終了時間と開始時間から計算をお願いします。
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="383">
   <si>
     <t>Elements</t>
   </si>
@@ -331,14 +406,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/state[at0029]/items[at0041]</t>
-  </si>
-  <si>
     <t>Description of thermal stress</t>
-  </si>
-  <si>
-    <t>EventPointTime</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DV_TEXT</t>
@@ -358,10 +426,6 @@
     <t>Pulse Rate</t>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004.1]/magnitude</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004.1]/units</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -440,9 +504,6 @@
   </si>
   <si>
     <t>mmlVs:vsMemo</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
   </si>
   <si>
     <t>Device name</t>
@@ -637,18 +698,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[at0009]</t>
-  </si>
-  <si>
     <t>Sensor Site</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Device Name</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0001]/value</t>
@@ -710,9 +765,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -721,9 +773,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -738,9 +787,6 @@
   <si>
     <t>Confounding factors</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/state[at0.91]/items[at0.93]</t>
   </si>
   <si>
     <t>PaO2(itemName="PaO2"の場合）</t>
@@ -841,9 +887,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]</t>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -955,9 +998,6 @@
   <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.specimen.v1]/items[openEHR-EHR-CLUSTER.anatomical_location.v1]/items[at0001]</t>
   </si>
   <si>
     <t>Body site</t>
@@ -1013,9 +1053,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0078]/value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1026,9 +1063,6 @@
   <si>
     <t>Result</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]</t>
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/time</t>
@@ -1339,6 +1373,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Facility']/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.organisation.v1 and name/value='Facility']/items[at0011]/value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1379,7 +1417,327 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>intakeType</t>
+    <t>intakeTypeが水分、お茶、ジュース、その他飲料以外(経管栄養剤も含む）</t>
+    <rPh sb="11" eb="13">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>インリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイカン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>エイヨウザイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>intakeTypeが水分、お茶、ジュース、その他飲料の場合</t>
+    <rPh sb="11" eb="13">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>インリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.dietary_intake.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.dietary_intake.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Route</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.dietary_intake.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DURATION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.dietary_intake.v1]/data[at0001]/events[at0002]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.dietary_intake.v1]/data[at0001]/events[at0002]/offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.dietary_intake.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0010]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.dietary_intake.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.specimen.v1]/items[openEHR-EHR-CLUSTER.anatomical_location.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.height.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0077]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/state[at0.91]/items[at0.93]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_gases.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0057]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.indirect_oximetry.v1]/protocol[at0007]/items[at0009]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.body_temperature.v1]/data[at0002]/events[at0003]/state[at0029]/items[at0041]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/protocol[at0010]/items[openEHR-EHR-CLUSTER.device.v1]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fluid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.fluid_input.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0035]/magnituide</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.fluid_input.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0036]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.fluid_input.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0035]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.fluid_input.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0034]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.fluid_input.v1]/data[at0001]/events[at0002]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.fluid_input.v1]/data[at0001]/events[at0002]/offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.fluid_input.v1]/data[at0001]/events[at0002]/data[at0003]/items[at0032]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.heart_rate-pulse.v1]/data[at0002]/events[at0003]/data[at0001]/items[at0004.1]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Substance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0006]/items[at0007]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0006]/items[at0007]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Clinical description</t>
+  </si>
+  <si>
+    <t>Colour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DURATION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0006]/items[at0070]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0013]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0005]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_COUNT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0.84]/items[at0.85]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Times</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PeriodStart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0.84]/items[at0.86]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PeriodEnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0.84]/items[at0.87]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.bodily_output.v1]/data[at0001]/events[at0006]/data[at0003]/items[openEHR-EHR-CLUSTER.fluid-flowsheet.v1]/items[at0.84]/items[at0.88]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Synopsys</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1]/data[at0001]/items[at0002]/value</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1442,7 +1800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1530,13 +1888,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,6 +2058,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K265"/>
+  <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1970,7 +2438,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1982,7 +2450,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1994,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -2003,20 +2471,20 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="14" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -2026,20 +2494,20 @@
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="13" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -2053,7 +2521,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -2068,7 +2536,7 @@
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2076,7 +2544,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -2090,17 +2558,17 @@
         <v>55</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -2115,17 +2583,17 @@
         <v>58</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -2137,7 +2605,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2152,7 +2620,7 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -2160,7 +2628,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -2171,20 +2639,20 @@
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="14" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
@@ -2196,20 +2664,20 @@
         <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -2221,7 +2689,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -2236,7 +2704,7 @@
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -2244,7 +2712,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -2255,20 +2723,20 @@
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="14" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -2281,17 +2749,17 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -2303,7 +2771,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -2318,7 +2786,7 @@
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -2339,139 +2807,163 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="28">
         <v>1.3</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="B27" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="B28" s="35" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>1.4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2485,7 +2977,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
@@ -2493,15 +2985,24 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
+      </c>
+      <c r="H30" t="s">
+        <v>355</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J30" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -2511,13 +3012,22 @@
         <v>7</v>
       </c>
       <c r="F31" s="3"/>
+      <c r="H31" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
@@ -2527,15 +3037,18 @@
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
@@ -2545,13 +3058,22 @@
         <v>7</v>
       </c>
       <c r="F33" s="3"/>
+      <c r="H33" t="s">
+        <v>359</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
@@ -2561,13 +3083,22 @@
         <v>7</v>
       </c>
       <c r="F34" s="3"/>
+      <c r="H34" t="s">
+        <v>360</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
@@ -2577,13 +3108,22 @@
         <v>7</v>
       </c>
       <c r="F35" s="3"/>
+      <c r="H35" t="s">
+        <v>361</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
@@ -2593,13 +3133,22 @@
         <v>7</v>
       </c>
       <c r="F36" s="3"/>
+      <c r="H36" t="s">
+        <v>322</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J36" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
@@ -2609,13 +3158,22 @@
         <v>7</v>
       </c>
       <c r="F37" s="3"/>
+      <c r="H37" t="s">
+        <v>323</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J37" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
@@ -2625,13 +3183,22 @@
         <v>7</v>
       </c>
       <c r="F38" s="3"/>
+      <c r="H38" t="s">
+        <v>367</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2642,10 +3209,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
@@ -2655,13 +3222,22 @@
         <v>7</v>
       </c>
       <c r="F40" s="3"/>
+      <c r="H40" t="s">
+        <v>373</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J40" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
@@ -2671,13 +3247,22 @@
         <v>7</v>
       </c>
       <c r="F41" s="3"/>
+      <c r="H41" t="s">
+        <v>374</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
@@ -2687,13 +3272,22 @@
         <v>7</v>
       </c>
       <c r="F42" s="3"/>
+      <c r="H42" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
@@ -2703,13 +3297,22 @@
         <v>7</v>
       </c>
       <c r="F43" s="3"/>
+      <c r="H43" t="s">
+        <v>379</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>1.5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -2719,10 +3322,19 @@
         <v>7</v>
       </c>
       <c r="F44" s="3"/>
+      <c r="H44" t="s">
+        <v>381</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2752,7 +3364,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>6</v>
@@ -2771,7 +3383,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>9</v>
@@ -2792,7 +3404,7 @@
         <v>57</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="K50" s="15"/>
     </row>
@@ -2817,7 +3429,7 @@
         <v>60</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -2840,7 +3452,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="K52" s="15"/>
     </row>
@@ -2857,13 +3469,13 @@
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>16</v>
@@ -2884,7 +3496,7 @@
         <v>62</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K54" s="15"/>
     </row>
@@ -2911,7 +3523,7 @@
         <v>62</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K55" s="15"/>
     </row>
@@ -2932,7 +3544,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K56" s="15"/>
     </row>
@@ -2949,13 +3561,13 @@
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="K57" s="15"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>22</v>
@@ -2976,7 +3588,7 @@
         <v>57</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="K58" s="15"/>
     </row>
@@ -3003,7 +3615,7 @@
         <v>60</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="K59" s="15"/>
     </row>
@@ -3024,7 +3636,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K60" s="15"/>
     </row>
@@ -3041,13 +3653,13 @@
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K61" s="15"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>27</v>
@@ -3068,7 +3680,7 @@
         <v>62</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="K62" s="15"/>
     </row>
@@ -3093,7 +3705,7 @@
         <v>62</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K63" s="15"/>
     </row>
@@ -3114,7 +3726,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K64" s="15"/>
     </row>
@@ -3131,16 +3743,16 @@
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="K65" s="15"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="24" t="s">
@@ -3152,13 +3764,13 @@
       <c r="F66" s="25"/>
       <c r="G66" s="18"/>
       <c r="H66" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I66" s="18" t="s">
         <v>62</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="K66" s="19"/>
     </row>
@@ -3176,7 +3788,7 @@
     </row>
     <row r="68" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -3209,7 +3821,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>33</v>
@@ -3232,7 +3844,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>36</v>
@@ -3253,7 +3865,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>38</v>
@@ -3268,19 +3880,19 @@
       <c r="F72" s="13"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>65</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="K72" s="15"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>41</v>
@@ -3299,13 +3911,13 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K73" s="15"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>44</v>
@@ -3320,19 +3932,19 @@
       <c r="F74" s="13"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K74" s="15"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>46</v>
@@ -3346,16 +3958,16 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K75" s="15"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="12" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>48</v>
@@ -3374,7 +3986,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>50</v>
@@ -3389,22 +4001,22 @@
       <c r="F77" s="13"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K77" s="15"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="21" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
@@ -3416,22 +4028,22 @@
       <c r="F78" s="13"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K78" s="15"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="21" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
@@ -3441,7 +4053,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="7"/>
@@ -3451,10 +4063,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="21" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
@@ -3466,22 +4078,22 @@
       <c r="F80" s="13"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K80" s="15"/>
     </row>
     <row r="81" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17" t="s">
@@ -3493,19 +4105,19 @@
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>62</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="K81" s="19"/>
     </row>
     <row r="83" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
@@ -3528,7 +4140,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>33</v>
@@ -3543,14 +4155,14 @@
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="12" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>36</v>
@@ -3570,7 +4182,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="12" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>38</v>
@@ -3596,7 +4208,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>41</v>
@@ -3620,7 +4232,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>44</v>
@@ -3635,18 +4247,18 @@
       <c r="F89" s="13"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>68</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="12" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>46</v>
@@ -3660,15 +4272,15 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="12" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>48</v>
@@ -3686,7 +4298,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="12" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>50</v>
@@ -3706,10 +4318,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="21" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13" t="s">
@@ -3721,21 +4333,21 @@
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J93" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13" t="s">
@@ -3745,7 +4357,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="13"/>
@@ -3754,10 +4366,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="21" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13" t="s">
@@ -3769,21 +4381,21 @@
       <c r="F95" s="13"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17" t="s">
@@ -3795,13 +4407,13 @@
       <c r="F96" s="17"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>62</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -3814,7 +4426,7 @@
     </row>
     <row r="99" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3842,7 +4454,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>33</v>
@@ -3857,14 +4469,14 @@
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="12" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>36</v>
@@ -3884,7 +4496,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="12" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>38</v>
@@ -3899,18 +4511,18 @@
       <c r="F103" s="13"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>41</v>
@@ -3929,12 +4541,12 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>44</v>
@@ -3949,18 +4561,18 @@
       <c r="F105" s="13"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="12" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>33</v>
@@ -3975,14 +4587,14 @@
       </c>
       <c r="G106" s="14"/>
       <c r="H106" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="12" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>36</v>
@@ -4002,7 +4614,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="12" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>38</v>
@@ -4017,18 +4629,18 @@
       <c r="F108" s="13"/>
       <c r="G108" s="14"/>
       <c r="H108" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J108" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="21" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>41</v>
@@ -4047,12 +4659,12 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="21" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>44</v>
@@ -4067,18 +4679,18 @@
       <c r="F110" s="13"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J110" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="21" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>46</v>
@@ -4092,15 +4704,15 @@
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="21" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>48</v>
@@ -4118,7 +4730,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>50</v>
@@ -4133,21 +4745,21 @@
       <c r="F113" s="13"/>
       <c r="G113" s="14"/>
       <c r="H113" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="21" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13" t="s">
@@ -4159,21 +4771,21 @@
       <c r="F114" s="13"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="21" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13" t="s">
@@ -4183,25 +4795,25 @@
         <v>7</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J115" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="21" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13" t="s">
@@ -4213,21 +4825,21 @@
       <c r="F116" s="13"/>
       <c r="G116" s="14"/>
       <c r="H116" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
@@ -4239,18 +4851,18 @@
       <c r="F117" s="17"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>60</v>
       </c>
       <c r="J117" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
@@ -4273,7 +4885,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>33</v>
@@ -4288,14 +4900,14 @@
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="12" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>36</v>
@@ -4315,7 +4927,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="12" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>38</v>
@@ -4330,18 +4942,18 @@
       <c r="F124" s="13"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>41</v>
@@ -4360,12 +4972,12 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>44</v>
@@ -4380,18 +4992,18 @@
       <c r="F126" s="13"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="12" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>46</v>
@@ -4405,15 +5017,15 @@
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J127" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="12" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>48</v>
@@ -4431,7 +5043,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="12" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>50</v>
@@ -4446,21 +5058,21 @@
       <c r="F129" s="13"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J129" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J129" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="21" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13" t="s">
@@ -4472,21 +5084,21 @@
       <c r="F130" s="13"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J130" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="21" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13" t="s">
@@ -4496,7 +5108,7 @@
         <v>7</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -4505,10 +5117,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="21" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13" t="s">
@@ -4520,21 +5132,21 @@
       <c r="F132" s="13"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J132" s="15" t="s">
-        <v>137</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17" t="s">
@@ -4546,18 +5158,18 @@
       <c r="F133" s="17"/>
       <c r="G133" s="18"/>
       <c r="H133" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>140</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
@@ -4595,7 +5207,7 @@
       </c>
       <c r="G137" s="14"/>
       <c r="H137" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
@@ -4638,10 +5250,10 @@
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J139" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
@@ -4664,10 +5276,10 @@
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J140" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -4680,10 +5292,10 @@
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J141" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -4703,13 +5315,13 @@
       <c r="F142" s="13"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
@@ -4728,10 +5340,10 @@
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J143" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -4769,21 +5381,21 @@
       <c r="F145" s="13"/>
       <c r="G145" s="14"/>
       <c r="H145" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J145" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13" t="s">
@@ -4795,21 +5407,21 @@
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
       <c r="H146" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J146" s="15" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13" t="s">
@@ -4819,25 +5431,25 @@
         <v>7</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G147" s="14"/>
       <c r="H147" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J147" s="15" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13" t="s">
@@ -4849,21 +5461,21 @@
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
       <c r="H148" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I148" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J148" s="15" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C149" s="17"/>
       <c r="D149" s="17" t="s">
@@ -4875,18 +5487,18 @@
       <c r="F149" s="17"/>
       <c r="G149" s="18"/>
       <c r="H149" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I149" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="I149" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="J149" s="19" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
@@ -4924,7 +5536,7 @@
       </c>
       <c r="G153" s="14"/>
       <c r="H153" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
@@ -4966,13 +5578,13 @@
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
       <c r="H155" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="J155" s="15" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
@@ -4996,7 +5608,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
@@ -5016,13 +5628,13 @@
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
       <c r="H157" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J157" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -5041,10 +5653,10 @@
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J158" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -5082,21 +5694,21 @@
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J160" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="13" t="s">
@@ -5108,21 +5720,21 @@
       <c r="F161" s="13"/>
       <c r="G161" s="14"/>
       <c r="H161" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J161" s="15" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13" t="s">
@@ -5132,25 +5744,25 @@
         <v>7</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G162" s="14"/>
       <c r="H162" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I162" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J162" s="15" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="13" t="s">
@@ -5162,21 +5774,21 @@
       <c r="F163" s="13"/>
       <c r="G163" s="14"/>
       <c r="H163" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I163" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J163" s="15" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="17" t="s">
@@ -5188,18 +5800,18 @@
       <c r="F164" s="17"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I164" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="I164" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="J164" s="19" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -5237,7 +5849,7 @@
       </c>
       <c r="G168" s="14"/>
       <c r="H168" s="14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
@@ -5279,13 +5891,13 @@
       <c r="F170" s="13"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J170" s="15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
@@ -5309,7 +5921,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
@@ -5329,13 +5941,13 @@
       <c r="F172" s="13"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J172" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
@@ -5354,10 +5966,10 @@
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J173" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
@@ -5395,21 +6007,21 @@
       <c r="F175" s="13"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I175" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J175" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="13" t="s">
@@ -5421,21 +6033,21 @@
       <c r="F176" s="13"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I176" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J176" s="15" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="13" t="s">
@@ -5445,25 +6057,25 @@
         <v>7</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G177" s="14"/>
       <c r="H177" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I177" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J177" s="15" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13" t="s">
@@ -5475,21 +6087,21 @@
       <c r="F178" s="13"/>
       <c r="G178" s="14"/>
       <c r="H178" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I178" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J178" s="15" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C179" s="17"/>
       <c r="D179" s="17" t="s">
@@ -5501,18 +6113,18 @@
       <c r="F179" s="17"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I179" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="I179" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="J179" s="19" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
@@ -5550,7 +6162,7 @@
       </c>
       <c r="G183" s="14"/>
       <c r="H183" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
@@ -5592,13 +6204,13 @@
       <c r="F185" s="13"/>
       <c r="G185" s="14"/>
       <c r="H185" s="14" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
@@ -5622,7 +6234,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
@@ -5642,13 +6254,13 @@
       <c r="F187" s="13"/>
       <c r="G187" s="14"/>
       <c r="H187" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J187" s="15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
@@ -5667,10 +6279,10 @@
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
       <c r="I188" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J188" s="15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
@@ -5708,21 +6320,21 @@
       <c r="F190" s="13"/>
       <c r="G190" s="14"/>
       <c r="H190" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I190" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J190" s="15" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="13" t="s">
@@ -5734,21 +6346,21 @@
       <c r="F191" s="13"/>
       <c r="G191" s="14"/>
       <c r="H191" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I191" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J191" s="15" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13" t="s">
@@ -5758,25 +6370,25 @@
         <v>7</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G192" s="14"/>
       <c r="H192" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I192" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J192" s="15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="13" t="s">
@@ -5793,10 +6405,10 @@
     </row>
     <row r="194" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C194" s="17"/>
       <c r="D194" s="17" t="s">
@@ -5808,18 +6420,18 @@
       <c r="F194" s="17"/>
       <c r="G194" s="18"/>
       <c r="H194" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I194" s="18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J194" s="19" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
@@ -5857,7 +6469,7 @@
       </c>
       <c r="G198" s="14"/>
       <c r="H198" s="14" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I198" s="14"/>
       <c r="J198" s="15"/>
@@ -5899,13 +6511,13 @@
       <c r="F200" s="13"/>
       <c r="G200" s="14"/>
       <c r="H200" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J200" s="15" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
@@ -5929,7 +6541,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
       <c r="J201" s="15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
@@ -5949,13 +6561,13 @@
       <c r="F202" s="13"/>
       <c r="G202" s="14"/>
       <c r="H202" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J202" s="15" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
@@ -5974,10 +6586,10 @@
       <c r="G203" s="14"/>
       <c r="H203" s="14"/>
       <c r="I203" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J203" s="15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
@@ -6015,21 +6627,21 @@
       <c r="F205" s="13"/>
       <c r="G205" s="14"/>
       <c r="H205" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I205" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J205" s="15" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="13" t="s">
@@ -6041,21 +6653,21 @@
       <c r="F206" s="13"/>
       <c r="G206" s="14"/>
       <c r="H206" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I206" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J206" s="15" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="13" t="s">
@@ -6065,25 +6677,25 @@
         <v>7</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G207" s="14"/>
       <c r="H207" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I207" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J207" s="15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="13" t="s">
@@ -6100,10 +6712,10 @@
     </row>
     <row r="209" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A209" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C209" s="17"/>
       <c r="D209" s="17" t="s">
@@ -6115,18 +6727,18 @@
       <c r="F209" s="17"/>
       <c r="G209" s="18"/>
       <c r="H209" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I209" s="18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J209" s="19" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
@@ -6164,7 +6776,7 @@
       </c>
       <c r="G213" s="14"/>
       <c r="H213" s="14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I213" s="14"/>
       <c r="J213" s="15"/>
@@ -6206,13 +6818,13 @@
       <c r="F215" s="13"/>
       <c r="G215" s="14"/>
       <c r="H215" s="14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="I215" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J215" s="15" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
@@ -6236,7 +6848,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
       <c r="J216" s="15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
@@ -6256,13 +6868,13 @@
       <c r="F217" s="13"/>
       <c r="G217" s="14"/>
       <c r="H217" s="14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J217" s="15" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
@@ -6281,10 +6893,10 @@
       <c r="G218" s="14"/>
       <c r="H218" s="14"/>
       <c r="I218" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J218" s="15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
@@ -6322,21 +6934,21 @@
       <c r="F220" s="13"/>
       <c r="G220" s="14"/>
       <c r="H220" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I220" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J220" s="15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="13" t="s">
@@ -6348,21 +6960,21 @@
       <c r="F221" s="13"/>
       <c r="G221" s="14"/>
       <c r="H221" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I221" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J221" s="15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="13" t="s">
@@ -6372,7 +6984,7 @@
         <v>7</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G222" s="14"/>
       <c r="H222" s="7"/>
@@ -6381,10 +6993,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="13" t="s">
@@ -6396,21 +7008,21 @@
       <c r="F223" s="13"/>
       <c r="G223" s="14"/>
       <c r="H223" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="I223" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J223" s="15" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C224" s="17"/>
       <c r="D224" s="17" t="s">
@@ -6422,18 +7034,18 @@
       <c r="F224" s="17"/>
       <c r="G224" s="18"/>
       <c r="H224" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I224" s="18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J224" s="19" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A226" s="20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.15">
@@ -6471,7 +7083,7 @@
       </c>
       <c r="G228" s="14"/>
       <c r="H228" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I228" s="14"/>
       <c r="J228" s="15"/>
@@ -6513,13 +7125,13 @@
       <c r="F230" s="13"/>
       <c r="G230" s="14"/>
       <c r="H230" s="14" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I230" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J230" s="15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
@@ -6543,7 +7155,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
       <c r="J231" s="15" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
@@ -6563,13 +7175,13 @@
       <c r="F232" s="13"/>
       <c r="G232" s="14"/>
       <c r="H232" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I232" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J232" s="15" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
@@ -6588,10 +7200,10 @@
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
       <c r="I233" s="14" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="J233" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
@@ -6634,10 +7246,10 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="13" t="s">
@@ -6654,10 +7266,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="13" t="s">
@@ -6667,7 +7279,7 @@
         <v>7</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G237" s="14"/>
       <c r="H237" s="7"/>
@@ -6676,10 +7288,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="13" t="s">
@@ -6696,10 +7308,10 @@
     </row>
     <row r="239" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A239" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C239" s="17"/>
       <c r="D239" s="17" t="s">
@@ -6711,18 +7323,18 @@
       <c r="F239" s="17"/>
       <c r="G239" s="18"/>
       <c r="H239" s="18" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I239" s="18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J239" s="19" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A241" s="20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.15">
@@ -6760,13 +7372,13 @@
       </c>
       <c r="G243" s="14"/>
       <c r="H243" s="14" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I243" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J243" s="15" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.15">
@@ -6786,13 +7398,13 @@
       <c r="F244" s="13"/>
       <c r="G244" s="14"/>
       <c r="H244" s="14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I244" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J244" s="15" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.15">
@@ -6812,13 +7424,13 @@
       <c r="F245" s="13"/>
       <c r="G245" s="14"/>
       <c r="H245" s="14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="I245" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J245" s="15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.15">
@@ -6842,7 +7454,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
       <c r="J246" s="15" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.15">
@@ -6862,13 +7474,13 @@
       <c r="F247" s="13"/>
       <c r="G247" s="14"/>
       <c r="H247" s="14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I247" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J247" s="15" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.15">
@@ -6887,10 +7499,10 @@
       <c r="G248" s="14"/>
       <c r="H248" s="14"/>
       <c r="I248" s="14" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="J248" s="15" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.15">
@@ -6928,21 +7540,21 @@
       <c r="F250" s="13"/>
       <c r="G250" s="14"/>
       <c r="H250" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I250" s="7" t="s">
         <v>60</v>
       </c>
       <c r="J250" s="15" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="13" t="s">
@@ -6954,21 +7566,21 @@
       <c r="F251" s="13"/>
       <c r="G251" s="14"/>
       <c r="H251" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I251" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J251" s="15" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="13" t="s">
@@ -6978,7 +7590,7 @@
         <v>7</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G252" s="14"/>
       <c r="H252" s="7"/>
@@ -6987,10 +7599,10 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="13" t="s">
@@ -7002,21 +7614,21 @@
       <c r="F253" s="13"/>
       <c r="G253" s="14"/>
       <c r="H253" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I253" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J253" s="15" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A254" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C254" s="17"/>
       <c r="D254" s="17" t="s">
@@ -7028,147 +7640,418 @@
       <c r="F254" s="17"/>
       <c r="G254" s="18"/>
       <c r="H254" s="18" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I254" s="18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J254" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A257" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A258" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F258" s="9"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="11"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A259" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G259" s="14"/>
+      <c r="H259" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I259" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="J259" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A260" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F260" s="13"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I260" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J260" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A261" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A262" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="13"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I262" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J262" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A263" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" s="13"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="I263" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="J263" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A264" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F264" s="13"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A258" s="4">
+      <c r="I264" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="J264" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B265" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265" s="17"/>
+      <c r="G265" s="18"/>
+      <c r="H265" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="I265" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="J265" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A268" s="8">
         <v>1.3</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B268" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F268" s="9"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="11"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A269" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G269" s="14"/>
+      <c r="H269" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I269" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J269" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A270" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F270" s="13"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I270" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J270" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A271" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="14"/>
+      <c r="J271" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A272" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272" s="13"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I272" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J272" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A273" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F273" s="13"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="I273" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="J273" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A274" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F258" s="3"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A259" s="4" t="s">
+      <c r="B274" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="C274" s="13"/>
+      <c r="D274" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" s="13"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I274" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="J274" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3" t="s">
+      <c r="B275" s="17" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A260" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F260" s="3"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A261" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A262" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F262" s="3"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A263" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F263" s="3"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A264" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F264" s="3"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A265" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F265" s="3"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" s="17"/>
+      <c r="G275" s="18"/>
+      <c r="H275" s="18"/>
+      <c r="I275" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="J275" s="19" t="s">
+        <v>353</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/mapping/mml4_flowsheet.xlsx
+++ b/mapping/mml4_flowsheet.xlsx
@@ -958,13 +958,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Blood glucose(itemName="Blood glucose"の場合）</t>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>itemName="Blood glucose"の場合</t>
     <rPh sb="25" eb="27">
       <t>バアイ</t>
@@ -1738,6 +1731,13 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1]/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blood sugar(itemName="Blood sugar"の場合）</t>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2438,7 +2438,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2450,7 +2450,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -2471,20 +2471,20 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>295</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -2494,20 +2494,20 @@
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -2521,7 +2521,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2544,7 +2544,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -2558,17 +2558,17 @@
         <v>55</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -2583,17 +2583,17 @@
         <v>58</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -2605,7 +2605,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -2628,7 +2628,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -2639,20 +2639,20 @@
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>295</v>
-      </c>
       <c r="J12" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
@@ -2664,20 +2664,20 @@
         <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -2689,7 +2689,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -2712,7 +2712,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -2723,20 +2723,20 @@
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -2749,17 +2749,17 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -2771,7 +2771,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -2811,7 +2811,7 @@
         <v>1.3</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
@@ -2863,10 +2863,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
@@ -2876,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
@@ -2903,10 +2903,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
@@ -2922,10 +2922,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
@@ -2941,10 +2941,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>244</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>245</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35" t="s">
@@ -2963,7 +2963,7 @@
         <v>1.4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2977,7 +2977,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
@@ -2985,16 +2985,16 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -3002,7 +3002,7 @@
         <v>85</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -3013,13 +3013,13 @@
       </c>
       <c r="F31" s="3"/>
       <c r="H31" t="s">
+        <v>315</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="J31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>87</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
@@ -3037,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>90</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
@@ -3059,13 +3059,13 @@
       </c>
       <c r="F33" s="3"/>
       <c r="H33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -3073,7 +3073,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
@@ -3084,21 +3084,21 @@
       </c>
       <c r="F34" s="3"/>
       <c r="H34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
@@ -3109,21 +3109,21 @@
       </c>
       <c r="F35" s="3"/>
       <c r="H35" t="s">
+        <v>360</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
         <v>361</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J35" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
@@ -3134,21 +3134,21 @@
       </c>
       <c r="F36" s="3"/>
       <c r="H36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
@@ -3159,21 +3159,21 @@
       </c>
       <c r="F37" s="3"/>
       <c r="H37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
@@ -3184,21 +3184,21 @@
       </c>
       <c r="F38" s="3"/>
       <c r="H38" t="s">
+        <v>366</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
         <v>367</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J38" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
@@ -3223,21 +3223,21 @@
       </c>
       <c r="F40" s="3"/>
       <c r="H40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J40" t="s">
         <v>371</v>
-      </c>
-      <c r="J40" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
@@ -3248,21 +3248,21 @@
       </c>
       <c r="F41" s="3"/>
       <c r="H41" t="s">
+        <v>373</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
         <v>374</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J41" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
@@ -3273,21 +3273,21 @@
       </c>
       <c r="F42" s="3"/>
       <c r="H42" t="s">
+        <v>375</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" t="s">
         <v>377</v>
-      </c>
-      <c r="J42" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
@@ -3298,13 +3298,13 @@
       </c>
       <c r="F43" s="3"/>
       <c r="H43" t="s">
+        <v>378</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
         <v>379</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="J43" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -3312,7 +3312,7 @@
         <v>1.5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -3323,18 +3323,18 @@
       </c>
       <c r="F44" s="3"/>
       <c r="H44" t="s">
+        <v>380</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" t="s">
         <v>381</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J44" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>6</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         <v>57</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K50" s="15"/>
     </row>
@@ -3429,7 +3429,7 @@
         <v>60</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -3452,7 +3452,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K52" s="15"/>
     </row>
@@ -3469,13 +3469,13 @@
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>16</v>
@@ -3496,7 +3496,7 @@
         <v>62</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K54" s="15"/>
     </row>
@@ -3523,7 +3523,7 @@
         <v>62</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K55" s="15"/>
     </row>
@@ -3544,7 +3544,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K56" s="15"/>
     </row>
@@ -3561,13 +3561,13 @@
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K57" s="15"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>22</v>
@@ -3588,7 +3588,7 @@
         <v>57</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K58" s="15"/>
     </row>
@@ -3615,7 +3615,7 @@
         <v>60</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K59" s="15"/>
     </row>
@@ -3636,7 +3636,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K60" s="15"/>
     </row>
@@ -3653,13 +3653,13 @@
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K61" s="15"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>27</v>
@@ -3680,7 +3680,7 @@
         <v>62</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K62" s="15"/>
     </row>
@@ -3705,7 +3705,7 @@
         <v>62</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K63" s="15"/>
     </row>
@@ -3726,7 +3726,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K64" s="15"/>
     </row>
@@ -3743,13 +3743,13 @@
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K65" s="15"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>94</v>
@@ -3770,7 +3770,7 @@
         <v>62</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K66" s="19"/>
     </row>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>33</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>36</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>38</v>
@@ -3886,13 +3886,13 @@
         <v>65</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K72" s="15"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>41</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>44</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>46</v>
@@ -3958,7 +3958,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>77</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>48</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>50</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>86</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>88</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>91</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="81" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>93</v>
@@ -4111,7 +4111,7 @@
         <v>62</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K81" s="19"/>
     </row>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>33</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>36</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>38</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>41</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>44</v>
@@ -4253,12 +4253,12 @@
         <v>60</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>46</v>
@@ -4272,7 +4272,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>79</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>48</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>50</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>86</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="94" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>88</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>91</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="96" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>93</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>33</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>36</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>38</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>41</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>44</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>33</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>36</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>38</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>41</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>44</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>46</v>
@@ -4704,7 +4704,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J111" s="15" t="s">
         <v>117</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>48</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>50</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>86</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>88</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>91</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="117" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>93</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>33</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>36</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>38</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>41</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>44</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>46</v>
@@ -5017,7 +5017,7 @@
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J127" s="15" t="s">
         <v>131</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>48</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>50</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>86</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>88</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>91</v>
@@ -5138,12 +5138,12 @@
         <v>62</v>
       </c>
       <c r="J132" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B133" s="17" t="s">
         <v>93</v>
@@ -5164,7 +5164,7 @@
         <v>69</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5340,7 +5340,7 @@
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J143" s="15" t="s">
         <v>84</v>
@@ -5413,7 +5413,7 @@
         <v>62</v>
       </c>
       <c r="J146" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
@@ -5441,7 +5441,7 @@
         <v>62</v>
       </c>
       <c r="J147" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
@@ -5467,7 +5467,7 @@
         <v>62</v>
       </c>
       <c r="J148" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5493,7 +5493,7 @@
         <v>151</v>
       </c>
       <c r="J149" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5653,7 +5653,7 @@
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J158" s="15" t="s">
         <v>84</v>
@@ -5726,7 +5726,7 @@
         <v>62</v>
       </c>
       <c r="J161" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
@@ -5754,7 +5754,7 @@
         <v>62</v>
       </c>
       <c r="J162" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
@@ -5780,7 +5780,7 @@
         <v>62</v>
       </c>
       <c r="J163" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5806,7 +5806,7 @@
         <v>151</v>
       </c>
       <c r="J164" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5966,7 +5966,7 @@
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J173" s="15" t="s">
         <v>84</v>
@@ -6039,7 +6039,7 @@
         <v>62</v>
       </c>
       <c r="J176" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
@@ -6067,7 +6067,7 @@
         <v>62</v>
       </c>
       <c r="J177" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
@@ -6093,7 +6093,7 @@
         <v>62</v>
       </c>
       <c r="J178" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>151</v>
       </c>
       <c r="J179" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
       <c r="I188" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J188" s="15" t="s">
         <v>169</v>
@@ -6426,7 +6426,7 @@
         <v>151</v>
       </c>
       <c r="J194" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6586,7 +6586,7 @@
       <c r="G203" s="14"/>
       <c r="H203" s="14"/>
       <c r="I203" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J203" s="15" t="s">
         <v>180</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="211" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="G213" s="14"/>
       <c r="H213" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I213" s="14"/>
       <c r="J213" s="15"/>
@@ -6818,13 +6818,13 @@
       <c r="F215" s="13"/>
       <c r="G215" s="14"/>
       <c r="H215" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I215" s="13" t="s">
         <v>81</v>
       </c>
       <c r="J215" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
@@ -6848,7 +6848,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
       <c r="J216" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
@@ -6868,13 +6868,13 @@
       <c r="F217" s="13"/>
       <c r="G217" s="14"/>
       <c r="H217" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I217" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J217" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
@@ -6893,10 +6893,10 @@
       <c r="G218" s="14"/>
       <c r="H218" s="14"/>
       <c r="I218" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J218" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
@@ -6940,7 +6940,7 @@
         <v>62</v>
       </c>
       <c r="J220" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
@@ -6966,7 +6966,7 @@
         <v>62</v>
       </c>
       <c r="J221" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
@@ -7008,13 +7008,13 @@
       <c r="F223" s="13"/>
       <c r="G223" s="14"/>
       <c r="H223" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I223" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J223" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7125,13 +7125,13 @@
       <c r="F230" s="13"/>
       <c r="G230" s="14"/>
       <c r="H230" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I230" s="13" t="s">
         <v>81</v>
       </c>
       <c r="J230" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
@@ -7155,7 +7155,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
       <c r="J231" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
@@ -7175,13 +7175,13 @@
       <c r="F232" s="13"/>
       <c r="G232" s="14"/>
       <c r="H232" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I232" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J232" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
@@ -7200,10 +7200,10 @@
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
       <c r="I233" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J233" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
@@ -7323,18 +7323,18 @@
       <c r="F239" s="17"/>
       <c r="G239" s="18"/>
       <c r="H239" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I239" s="18" t="s">
         <v>151</v>
       </c>
       <c r="J239" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A241" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.15">
@@ -7372,13 +7372,13 @@
       </c>
       <c r="G243" s="14"/>
       <c r="H243" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I243" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J243" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.15">
@@ -7398,13 +7398,13 @@
       <c r="F244" s="13"/>
       <c r="G244" s="14"/>
       <c r="H244" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I244" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J244" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.15">
@@ -7424,13 +7424,13 @@
       <c r="F245" s="13"/>
       <c r="G245" s="14"/>
       <c r="H245" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I245" s="13" t="s">
         <v>81</v>
       </c>
       <c r="J245" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.15">
@@ -7454,7 +7454,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
       <c r="J246" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.15">
@@ -7474,13 +7474,13 @@
       <c r="F247" s="13"/>
       <c r="G247" s="14"/>
       <c r="H247" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I247" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J247" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.15">
@@ -7499,10 +7499,10 @@
       <c r="G248" s="14"/>
       <c r="H248" s="14"/>
       <c r="I248" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J248" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.15">
@@ -7546,7 +7546,7 @@
         <v>60</v>
       </c>
       <c r="J250" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.15">
@@ -7572,7 +7572,7 @@
         <v>62</v>
       </c>
       <c r="J251" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.15">
@@ -7614,13 +7614,13 @@
       <c r="F253" s="13"/>
       <c r="G253" s="14"/>
       <c r="H253" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I253" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J253" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7640,18 +7640,18 @@
       <c r="F254" s="17"/>
       <c r="G254" s="18"/>
       <c r="H254" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I254" s="18" t="s">
         <v>151</v>
       </c>
       <c r="J254" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A257" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.15">
@@ -7659,7 +7659,7 @@
         <v>1.3</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B259" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="13" t="s">
@@ -7685,25 +7685,25 @@
       </c>
       <c r="E259" s="13"/>
       <c r="F259" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G259" s="14"/>
       <c r="H259" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I259" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="I259" s="13" t="s">
-        <v>314</v>
-      </c>
       <c r="J259" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B260" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B260" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="13" t="s">
@@ -7715,21 +7715,21 @@
       <c r="F260" s="13"/>
       <c r="G260" s="14"/>
       <c r="H260" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I260" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="I260" s="13" t="s">
-        <v>317</v>
-      </c>
       <c r="J260" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B261" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="13" t="s">
@@ -7739,21 +7739,21 @@
         <v>7</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G261" s="14"/>
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
       <c r="J261" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B262" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="13" t="s">
@@ -7765,21 +7765,21 @@
       <c r="F262" s="13"/>
       <c r="G262" s="14"/>
       <c r="H262" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="I262" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="I262" s="13" t="s">
+      <c r="J262" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="J262" s="15" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B263" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="B263" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="13" t="s">
@@ -7791,21 +7791,21 @@
       <c r="F263" s="13"/>
       <c r="G263" s="14"/>
       <c r="H263" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I263" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J263" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B264" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="B264" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="13" t="s">
@@ -7817,21 +7817,21 @@
       <c r="F264" s="13"/>
       <c r="G264" s="14"/>
       <c r="H264" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I264" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J264" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A265" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B265" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="B265" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="C265" s="17"/>
       <c r="D265" s="17" t="s">
@@ -7843,18 +7843,18 @@
       <c r="F265" s="17"/>
       <c r="G265" s="18"/>
       <c r="H265" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="I265" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J265" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="J265" s="19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A267" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.15">
@@ -7862,7 +7862,7 @@
         <v>1.3</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B269" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="13" t="s">
@@ -7888,25 +7888,25 @@
       </c>
       <c r="E269" s="13"/>
       <c r="F269" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G269" s="14"/>
       <c r="H269" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="I269" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="I269" s="13" t="s">
-        <v>345</v>
-      </c>
       <c r="J269" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B270" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="13" t="s">
@@ -7918,21 +7918,21 @@
       <c r="F270" s="13"/>
       <c r="G270" s="14"/>
       <c r="H270" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I270" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="I270" s="13" t="s">
-        <v>317</v>
-      </c>
       <c r="J270" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B271" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="13" t="s">
@@ -7942,21 +7942,21 @@
         <v>7</v>
       </c>
       <c r="F271" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G271" s="14"/>
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
       <c r="J271" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B272" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="B272" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="C272" s="13"/>
       <c r="D272" s="13" t="s">
@@ -7968,21 +7968,21 @@
       <c r="F272" s="13"/>
       <c r="G272" s="14"/>
       <c r="H272" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="I272" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="I272" s="13" t="s">
-        <v>320</v>
-      </c>
       <c r="J272" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B273" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="B273" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="13" t="s">
@@ -7994,21 +7994,21 @@
       <c r="F273" s="13"/>
       <c r="G273" s="14"/>
       <c r="H273" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I273" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="J273" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="J273" s="15" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B274" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="B274" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="13" t="s">
@@ -8020,21 +8020,21 @@
       <c r="F274" s="13"/>
       <c r="G274" s="14"/>
       <c r="H274" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I274" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J274" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A275" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B275" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="B275" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="C275" s="17"/>
       <c r="D275" s="17" t="s">
@@ -8047,10 +8047,10 @@
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
       <c r="I275" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J275" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml4_flowsheet.xlsx
+++ b/mapping/mml4_flowsheet.xlsx
@@ -1730,14 +1730,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1]/data[at0001]/items[at0002]/value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Blood sugar(itemName="Blood sugar"の場合）</t>
     <rPh sb="35" eb="37">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1]/data[at0001]/items[at0002]/value</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3329,7 +3329,7 @@
         <v>319</v>
       </c>
       <c r="J44" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6738,7 +6738,7 @@
     </row>
     <row r="211" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">

--- a/mapping/mml4_flowsheet.xlsx
+++ b/mapping/mml4_flowsheet.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="384">
   <si>
     <t>Elements</t>
   </si>
@@ -1738,6 +1738,10 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.clinical_synopsis.v1]/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.lab_result_annotation.v1]/items[at0017]/value</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2392,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="J225" sqref="J225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7040,7 +7044,7 @@
         <v>151</v>
       </c>
       <c r="J224" s="19" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">

--- a/mapping/mml4_flowsheet.xlsx
+++ b/mapping/mml4_flowsheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skoba\OneDrive\ドキュメント\GitHub\mml\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19080" windowHeight="8430"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <author>skoba</author>
   </authors>
   <commentList>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0">
+    <comment ref="H37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J48" authorId="0">
+    <comment ref="J48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H70" authorId="0">
+    <comment ref="H70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H74" authorId="0">
+    <comment ref="H74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H79" authorId="0">
+    <comment ref="H79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H110" authorId="0">
+    <comment ref="H110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H264" authorId="0">
+    <comment ref="H264" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H274" authorId="0">
+    <comment ref="H274" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,13 +1245,7 @@
     <t>1.4.10.2</t>
   </si>
   <si>
-    <t>mmlFs:bofPeriodStart</t>
-  </si>
-  <si>
     <t>1.4.10.3</t>
-  </si>
-  <si>
-    <t>mmlFs:bofPeriodEnd</t>
   </si>
   <si>
     <t>1.4.10.4</t>
@@ -1744,11 +1743,18 @@
     <t>/content[openEHR-EHR-SECTION.vital_signs.v1]/items[openEHR-EHR-OBSERVATION.lab_test-blood_glucose.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.lab_result_annotation.v1]/items[at0017]/value</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>mmlFs:bofPeriodStartTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlFs:bofPeriodEndTime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2103,12 +2109,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2150,7 +2159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2183,9 +2192,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2218,6 +2244,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2396,24 +2439,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="J225" sqref="J225"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>214</v>
@@ -2449,7 +2492,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -2461,7 +2504,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2475,16 +2518,16 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -2498,16 +2541,16 @@
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -2525,10 +2568,10 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2540,10 +2583,10 @@
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2562,13 +2605,13 @@
         <v>55</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -2587,13 +2630,13 @@
         <v>58</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -2609,10 +2652,10 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2624,10 +2667,10 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -2643,16 +2686,16 @@
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -2668,16 +2711,16 @@
         <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -2693,10 +2736,10 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2708,10 +2751,10 @@
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2727,16 +2770,16 @@
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -2753,13 +2796,13 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -2775,10 +2818,10 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2790,10 +2833,10 @@
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1.2</v>
       </c>
@@ -2810,7 +2853,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>1.3</v>
       </c>
@@ -2827,7 +2870,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>229</v>
       </c>
@@ -2846,7 +2889,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>232</v>
       </c>
@@ -2865,7 +2908,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>234</v>
       </c>
@@ -2886,7 +2929,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>237</v>
       </c>
@@ -2905,7 +2948,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>239</v>
       </c>
@@ -2924,7 +2967,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>241</v>
       </c>
@@ -2943,7 +2986,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>243</v>
       </c>
@@ -2962,7 +3005,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="37"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1.4</v>
       </c>
@@ -2976,7 +3019,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
@@ -2992,16 +3035,16 @@
         <v>247</v>
       </c>
       <c r="H30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -3017,16 +3060,16 @@
       </c>
       <c r="F31" s="3"/>
       <c r="H31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
@@ -3044,10 +3087,10 @@
         <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
@@ -3063,16 +3106,16 @@
       </c>
       <c r="F33" s="3"/>
       <c r="H33" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J33" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -3088,16 +3131,16 @@
       </c>
       <c r="F34" s="3"/>
       <c r="H34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>253</v>
       </c>
@@ -3113,16 +3156,16 @@
       </c>
       <c r="F35" s="3"/>
       <c r="H35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>255</v>
       </c>
@@ -3138,16 +3181,16 @@
       </c>
       <c r="F36" s="3"/>
       <c r="H36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J36" t="s">
         <v>362</v>
       </c>
-      <c r="J36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>257</v>
       </c>
@@ -3163,16 +3206,16 @@
       </c>
       <c r="F37" s="3"/>
       <c r="H37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J37" t="s">
         <v>363</v>
       </c>
-      <c r="J37" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>259</v>
       </c>
@@ -3188,16 +3231,16 @@
       </c>
       <c r="F38" s="3"/>
       <c r="H38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J38" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>261</v>
       </c>
@@ -3211,7 +3254,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>263</v>
       </c>
@@ -3227,21 +3270,21 @@
       </c>
       <c r="F40" s="3"/>
       <c r="H40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>266</v>
+        <v>382</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
@@ -3252,21 +3295,21 @@
       </c>
       <c r="F41" s="3"/>
       <c r="H41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="B42" t="s">
+        <v>383</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
@@ -3277,21 +3320,21 @@
       </c>
       <c r="F42" s="3"/>
       <c r="H42" t="s">
+        <v>373</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J42" t="s">
         <v>375</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="J42" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
@@ -3302,21 +3345,21 @@
       </c>
       <c r="F43" s="3"/>
       <c r="H43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1.5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -3327,16 +3370,16 @@
       </c>
       <c r="F44" s="3"/>
       <c r="H44" t="s">
+        <v>378</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
         <v>380</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="J44" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>213</v>
       </c>
@@ -3349,7 +3392,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>1.2</v>
       </c>
@@ -3366,9 +3409,9 @@
       <c r="J48" s="10"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>6</v>
@@ -3385,9 +3428,9 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>9</v>
@@ -3408,11 +3451,11 @@
         <v>57</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
@@ -3433,11 +3476,11 @@
         <v>60</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
@@ -3456,11 +3499,11 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3473,13 +3516,13 @@
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>16</v>
@@ -3500,11 +3543,11 @@
         <v>62</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
@@ -3527,11 +3570,11 @@
         <v>62</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13" t="s">
@@ -3548,11 +3591,11 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -3565,13 +3608,13 @@
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>22</v>
@@ -3592,11 +3635,11 @@
         <v>57</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
@@ -3619,11 +3662,11 @@
         <v>60</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
@@ -3640,11 +3683,11 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -3657,13 +3700,13 @@
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>27</v>
@@ -3684,11 +3727,11 @@
         <v>62</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
@@ -3709,11 +3752,11 @@
         <v>62</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
@@ -3730,11 +3773,11 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -3747,13 +3790,13 @@
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>94</v>
@@ -3774,11 +3817,11 @@
         <v>62</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -3790,7 +3833,7 @@
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
         <v>99</v>
       </c>
@@ -3804,7 +3847,7 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>1.2</v>
       </c>
@@ -3823,9 +3866,9 @@
       <c r="J69" s="10"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>33</v>
@@ -3846,9 +3889,9 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>36</v>
@@ -3867,9 +3910,9 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>38</v>
@@ -3890,13 +3933,13 @@
         <v>65</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>41</v>
@@ -3919,9 +3962,9 @@
       </c>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>44</v>
@@ -3946,9 +3989,9 @@
       </c>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>46</v>
@@ -3962,16 +4005,16 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>77</v>
       </c>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>48</v>
@@ -3988,9 +4031,9 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>50</v>
@@ -4015,9 +4058,9 @@
       </c>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>86</v>
@@ -4042,9 +4085,9 @@
       </c>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>88</v>
@@ -4065,9 +4108,9 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>91</v>
@@ -4092,9 +4135,9 @@
       </c>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>93</v>
@@ -4115,16 +4158,16 @@
         <v>62</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K81" s="19"/>
     </row>
-    <row r="83" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>1.2</v>
       </c>
@@ -4142,9 +4185,9 @@
       <c r="I84" s="10"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>33</v>
@@ -4164,9 +4207,9 @@
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>36</v>
@@ -4184,9 +4227,9 @@
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>38</v>
@@ -4210,9 +4253,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>41</v>
@@ -4234,9 +4277,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>44</v>
@@ -4257,12 +4300,12 @@
         <v>60</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>46</v>
@@ -4276,15 +4319,15 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>48</v>
@@ -4300,9 +4343,9 @@
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>50</v>
@@ -4320,9 +4363,9 @@
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>86</v>
@@ -4346,9 +4389,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>88</v>
@@ -4368,9 +4411,9 @@
       <c r="I94" s="13"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>91</v>
@@ -4394,9 +4437,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>93</v>
@@ -4420,7 +4463,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4428,7 +4471,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>106</v>
       </c>
@@ -4438,7 +4481,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>1.2</v>
       </c>
@@ -4456,9 +4499,9 @@
       <c r="I100" s="10"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>33</v>
@@ -4478,9 +4521,9 @@
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>36</v>
@@ -4498,9 +4541,9 @@
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>38</v>
@@ -4524,9 +4567,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>41</v>
@@ -4548,9 +4591,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>44</v>
@@ -4574,9 +4617,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>33</v>
@@ -4596,9 +4639,9 @@
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>36</v>
@@ -4616,9 +4659,9 @@
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>38</v>
@@ -4642,9 +4685,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>41</v>
@@ -4666,9 +4709,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>44</v>
@@ -4692,9 +4735,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>46</v>
@@ -4708,15 +4751,15 @@
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J111" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>48</v>
@@ -4732,9 +4775,9 @@
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>50</v>
@@ -4758,9 +4801,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>86</v>
@@ -4784,9 +4827,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>88</v>
@@ -4812,9 +4855,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>91</v>
@@ -4838,9 +4881,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>93</v>
@@ -4864,12 +4907,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>1.2</v>
       </c>
@@ -4887,9 +4930,9 @@
       <c r="I121" s="10"/>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>33</v>
@@ -4909,9 +4952,9 @@
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>36</v>
@@ -4929,9 +4972,9 @@
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>38</v>
@@ -4955,9 +4998,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>41</v>
@@ -4979,9 +5022,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>44</v>
@@ -5005,9 +5048,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>46</v>
@@ -5021,15 +5064,15 @@
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J127" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>48</v>
@@ -5045,9 +5088,9 @@
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>50</v>
@@ -5071,9 +5114,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>86</v>
@@ -5097,9 +5140,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>88</v>
@@ -5119,9 +5162,9 @@
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>91</v>
@@ -5142,12 +5185,12 @@
         <v>62</v>
       </c>
       <c r="J132" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B133" s="17" t="s">
         <v>93</v>
@@ -5168,15 +5211,15 @@
         <v>69</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>1.2</v>
       </c>
@@ -5194,7 +5237,7 @@
       <c r="I136" s="10"/>
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>32</v>
       </c>
@@ -5216,7 +5259,7 @@
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>35</v>
       </c>
@@ -5236,7 +5279,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>37</v>
       </c>
@@ -5260,7 +5303,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>40</v>
       </c>
@@ -5286,7 +5329,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -5302,7 +5345,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>43</v>
       </c>
@@ -5328,7 +5371,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>1.3</v>
       </c>
@@ -5344,13 +5387,13 @@
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J143" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>1.4</v>
       </c>
@@ -5368,7 +5411,7 @@
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>49</v>
       </c>
@@ -5394,7 +5437,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
         <v>85</v>
       </c>
@@ -5417,10 +5460,10 @@
         <v>62</v>
       </c>
       <c r="J146" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
         <v>87</v>
       </c>
@@ -5445,10 +5488,10 @@
         <v>62</v>
       </c>
       <c r="J147" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
         <v>90</v>
       </c>
@@ -5471,10 +5514,10 @@
         <v>62</v>
       </c>
       <c r="J148" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>92</v>
       </c>
@@ -5497,15 +5540,15 @@
         <v>151</v>
       </c>
       <c r="J149" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>1.2</v>
       </c>
@@ -5523,7 +5566,7 @@
       <c r="I152" s="10"/>
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>32</v>
       </c>
@@ -5545,7 +5588,7 @@
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>35</v>
       </c>
@@ -5565,7 +5608,7 @@
       <c r="I154" s="14"/>
       <c r="J154" s="15"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>37</v>
       </c>
@@ -5591,7 +5634,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>40</v>
       </c>
@@ -5615,7 +5658,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -5641,7 +5684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>1.3</v>
       </c>
@@ -5657,13 +5700,13 @@
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J158" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>1.4</v>
       </c>
@@ -5681,7 +5724,7 @@
       <c r="I159" s="14"/>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>49</v>
       </c>
@@ -5707,7 +5750,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
         <v>85</v>
       </c>
@@ -5730,10 +5773,10 @@
         <v>62</v>
       </c>
       <c r="J161" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
         <v>87</v>
       </c>
@@ -5758,10 +5801,10 @@
         <v>62</v>
       </c>
       <c r="J162" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
         <v>90</v>
       </c>
@@ -5784,10 +5827,10 @@
         <v>62</v>
       </c>
       <c r="J163" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
         <v>92</v>
       </c>
@@ -5810,15 +5853,15 @@
         <v>151</v>
       </c>
       <c r="J164" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>1.2</v>
       </c>
@@ -5836,7 +5879,7 @@
       <c r="I167" s="10"/>
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>32</v>
       </c>
@@ -5858,7 +5901,7 @@
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>35</v>
       </c>
@@ -5878,7 +5921,7 @@
       <c r="I169" s="14"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>37</v>
       </c>
@@ -5904,7 +5947,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>40</v>
       </c>
@@ -5928,7 +5971,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>43</v>
       </c>
@@ -5954,7 +5997,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>1.3</v>
       </c>
@@ -5970,13 +6013,13 @@
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J173" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>1.4</v>
       </c>
@@ -5994,7 +6037,7 @@
       <c r="I174" s="14"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>49</v>
       </c>
@@ -6020,7 +6063,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
         <v>85</v>
       </c>
@@ -6043,10 +6086,10 @@
         <v>62</v>
       </c>
       <c r="J176" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
         <v>87</v>
       </c>
@@ -6071,10 +6114,10 @@
         <v>62</v>
       </c>
       <c r="J177" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
         <v>90</v>
       </c>
@@ -6097,10 +6140,10 @@
         <v>62</v>
       </c>
       <c r="J178" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="16" t="s">
         <v>92</v>
       </c>
@@ -6123,15 +6166,15 @@
         <v>151</v>
       </c>
       <c r="J179" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>1.2</v>
       </c>
@@ -6149,7 +6192,7 @@
       <c r="I182" s="10"/>
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>32</v>
       </c>
@@ -6171,7 +6214,7 @@
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>35</v>
       </c>
@@ -6191,7 +6234,7 @@
       <c r="I184" s="14"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>37</v>
       </c>
@@ -6217,7 +6260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>40</v>
       </c>
@@ -6241,7 +6284,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>43</v>
       </c>
@@ -6267,7 +6310,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>1.3</v>
       </c>
@@ -6283,13 +6326,13 @@
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
       <c r="I188" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J188" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>1.4</v>
       </c>
@@ -6307,7 +6350,7 @@
       <c r="I189" s="14"/>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>49</v>
       </c>
@@ -6333,7 +6376,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
         <v>85</v>
       </c>
@@ -6359,7 +6402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
         <v>87</v>
       </c>
@@ -6387,7 +6430,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
         <v>90</v>
       </c>
@@ -6407,7 +6450,7 @@
       <c r="I193" s="7"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="16" t="s">
         <v>92</v>
       </c>
@@ -6430,15 +6473,15 @@
         <v>151</v>
       </c>
       <c r="J194" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>1.2</v>
       </c>
@@ -6456,7 +6499,7 @@
       <c r="I197" s="10"/>
       <c r="J197" s="11"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>32</v>
       </c>
@@ -6478,7 +6521,7 @@
       <c r="I198" s="14"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>35</v>
       </c>
@@ -6498,7 +6541,7 @@
       <c r="I199" s="14"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>37</v>
       </c>
@@ -6524,7 +6567,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>40</v>
       </c>
@@ -6548,7 +6591,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>43</v>
       </c>
@@ -6574,7 +6617,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>1.3</v>
       </c>
@@ -6590,13 +6633,13 @@
       <c r="G203" s="14"/>
       <c r="H203" s="14"/>
       <c r="I203" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J203" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>1.4</v>
       </c>
@@ -6614,7 +6657,7 @@
       <c r="I204" s="14"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>49</v>
       </c>
@@ -6640,7 +6683,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
         <v>85</v>
       </c>
@@ -6666,7 +6709,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
         <v>87</v>
       </c>
@@ -6694,7 +6737,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
         <v>90</v>
       </c>
@@ -6714,7 +6757,7 @@
       <c r="I208" s="7"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="16" t="s">
         <v>92</v>
       </c>
@@ -6740,12 +6783,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>1.2</v>
       </c>
@@ -6763,7 +6806,7 @@
       <c r="I212" s="10"/>
       <c r="J212" s="11"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>32</v>
       </c>
@@ -6785,7 +6828,7 @@
       <c r="I213" s="14"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>35</v>
       </c>
@@ -6805,7 +6848,7 @@
       <c r="I214" s="14"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>37</v>
       </c>
@@ -6831,7 +6874,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>40</v>
       </c>
@@ -6855,7 +6898,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>43</v>
       </c>
@@ -6881,7 +6924,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>1.3</v>
       </c>
@@ -6897,13 +6940,13 @@
       <c r="G218" s="14"/>
       <c r="H218" s="14"/>
       <c r="I218" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J218" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>1.4</v>
       </c>
@@ -6921,7 +6964,7 @@
       <c r="I219" s="14"/>
       <c r="J219" s="15"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>49</v>
       </c>
@@ -6947,7 +6990,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="s">
         <v>85</v>
       </c>
@@ -6973,7 +7016,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="s">
         <v>87</v>
       </c>
@@ -6995,7 +7038,7 @@
       <c r="I222" s="7"/>
       <c r="J222" s="15"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="s">
         <v>90</v>
       </c>
@@ -7018,10 +7061,10 @@
         <v>62</v>
       </c>
       <c r="J223" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16" t="s">
         <v>92</v>
       </c>
@@ -7044,15 +7087,15 @@
         <v>151</v>
       </c>
       <c r="J224" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>1.2</v>
       </c>
@@ -7070,7 +7113,7 @@
       <c r="I227" s="10"/>
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>32</v>
       </c>
@@ -7092,7 +7135,7 @@
       <c r="I228" s="14"/>
       <c r="J228" s="15"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
         <v>35</v>
       </c>
@@ -7112,7 +7155,7 @@
       <c r="I229" s="14"/>
       <c r="J229" s="15"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>37</v>
       </c>
@@ -7138,7 +7181,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
         <v>40</v>
       </c>
@@ -7162,7 +7205,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
         <v>43</v>
       </c>
@@ -7188,7 +7231,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>1.3</v>
       </c>
@@ -7204,13 +7247,13 @@
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
       <c r="I233" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J233" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>1.4</v>
       </c>
@@ -7228,7 +7271,7 @@
       <c r="I234" s="14"/>
       <c r="J234" s="15"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
         <v>49</v>
       </c>
@@ -7248,7 +7291,7 @@
       <c r="I235" s="7"/>
       <c r="J235" s="15"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
         <v>85</v>
       </c>
@@ -7268,7 +7311,7 @@
       <c r="I236" s="7"/>
       <c r="J236" s="15"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
         <v>87</v>
       </c>
@@ -7290,7 +7333,7 @@
       <c r="I237" s="7"/>
       <c r="J237" s="15"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
         <v>90</v>
       </c>
@@ -7310,7 +7353,7 @@
       <c r="I238" s="7"/>
       <c r="J238" s="15"/>
     </row>
-    <row r="239" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="16" t="s">
         <v>92</v>
       </c>
@@ -7336,12 +7379,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>1.2</v>
       </c>
@@ -7359,7 +7402,7 @@
       <c r="I242" s="10"/>
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>32</v>
       </c>
@@ -7382,10 +7425,10 @@
         <v>62</v>
       </c>
       <c r="J243" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>35</v>
       </c>
@@ -7411,7 +7454,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
         <v>37</v>
       </c>
@@ -7437,7 +7480,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>40</v>
       </c>
@@ -7461,7 +7504,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>43</v>
       </c>
@@ -7484,10 +7527,10 @@
         <v>69</v>
       </c>
       <c r="J247" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>1.3</v>
       </c>
@@ -7503,13 +7546,13 @@
       <c r="G248" s="14"/>
       <c r="H248" s="14"/>
       <c r="I248" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J248" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>1.4</v>
       </c>
@@ -7527,7 +7570,7 @@
       <c r="I249" s="14"/>
       <c r="J249" s="15"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
         <v>49</v>
       </c>
@@ -7553,7 +7596,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
         <v>85</v>
       </c>
@@ -7579,7 +7622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
         <v>87</v>
       </c>
@@ -7601,7 +7644,7 @@
       <c r="I252" s="7"/>
       <c r="J252" s="15"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
         <v>90</v>
       </c>
@@ -7627,7 +7670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="16" t="s">
         <v>92</v>
       </c>
@@ -7653,12 +7696,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>1.3</v>
       </c>
@@ -7676,7 +7719,7 @@
       <c r="I258" s="10"/>
       <c r="J258" s="11"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
         <v>229</v>
       </c>
@@ -7693,16 +7736,16 @@
       </c>
       <c r="G259" s="14"/>
       <c r="H259" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I259" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J259" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
         <v>232</v>
       </c>
@@ -7719,16 +7762,16 @@
       <c r="F260" s="13"/>
       <c r="G260" s="14"/>
       <c r="H260" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I260" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J260" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>234</v>
       </c>
@@ -7749,10 +7792,10 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
       <c r="J261" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>237</v>
       </c>
@@ -7769,16 +7812,16 @@
       <c r="F262" s="13"/>
       <c r="G262" s="14"/>
       <c r="H262" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I262" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J262" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="I262" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="J262" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
         <v>239</v>
       </c>
@@ -7795,16 +7838,16 @@
       <c r="F263" s="13"/>
       <c r="G263" s="14"/>
       <c r="H263" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I263" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J263" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
         <v>241</v>
       </c>
@@ -7821,16 +7864,16 @@
       <c r="F264" s="13"/>
       <c r="G264" s="14"/>
       <c r="H264" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I264" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="J264" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="J264" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="22" t="s">
         <v>243</v>
       </c>
@@ -7847,21 +7890,21 @@
       <c r="F265" s="17"/>
       <c r="G265" s="18"/>
       <c r="H265" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I265" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J265" s="19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>1.3</v>
       </c>
@@ -7879,7 +7922,7 @@
       <c r="I268" s="10"/>
       <c r="J268" s="11"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
         <v>229</v>
       </c>
@@ -7896,16 +7939,16 @@
       </c>
       <c r="G269" s="14"/>
       <c r="H269" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I269" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J269" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="J269" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
         <v>232</v>
       </c>
@@ -7922,16 +7965,16 @@
       <c r="F270" s="13"/>
       <c r="G270" s="14"/>
       <c r="H270" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I270" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J270" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
         <v>234</v>
       </c>
@@ -7952,10 +7995,10 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
       <c r="J271" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
         <v>237</v>
       </c>
@@ -7972,16 +8015,16 @@
       <c r="F272" s="13"/>
       <c r="G272" s="14"/>
       <c r="H272" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I272" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J272" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
         <v>239</v>
       </c>
@@ -7998,16 +8041,16 @@
       <c r="F273" s="13"/>
       <c r="G273" s="14"/>
       <c r="H273" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I273" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J273" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
         <v>241</v>
       </c>
@@ -8024,16 +8067,16 @@
       <c r="F274" s="13"/>
       <c r="G274" s="14"/>
       <c r="H274" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I274" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J274" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="22" t="s">
         <v>243</v>
       </c>
@@ -8051,10 +8094,10 @@
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
       <c r="I275" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J275" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -8071,7 +8114,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8084,7 +8130,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
